--- a/nuno-dataset/test-oxigen-01/content/results/metrics_11_8.xlsx
+++ b/nuno-dataset/test-oxigen-01/content/results/metrics_11_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,152 +482,152 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7410172631735918</v>
+        <v>0.7706758378222208</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0628269605260996</v>
+        <v>0.8724486424972466</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6716602996438303</v>
+        <v>0.9010330015449755</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1920526064392332</v>
+        <v>0.9080584101477194</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2866175770759583</v>
+        <v>0.253794252872467</v>
       </c>
       <c r="G2" t="n">
-        <v>1.585622668266296</v>
+        <v>0.1137137785553932</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1441611349582672</v>
+        <v>0.06712868809700012</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9072863459587097</v>
+        <v>0.09179136902093887</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_13</t>
+          <t>model_11_8_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8565542153377854</v>
+        <v>0.813224769946297</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6707067193861833</v>
+        <v>0.8971339053674581</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.01409115750176815</v>
+        <v>0.784003938405666</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5507477803567588</v>
+        <v>0.8823118856099572</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1587522178888321</v>
+        <v>0.2067051380872726</v>
       </c>
       <c r="G3" t="n">
-        <v>0.557138204574585</v>
+        <v>0.0917065292596817</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4452477991580963</v>
+        <v>0.1465087682008743</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5044887661933899</v>
+        <v>0.1174958348274231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_12</t>
+          <t>model_11_8_3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8581732603029865</v>
+        <v>0.8311366140648514</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6819074741552373</v>
+        <v>0.4761355749495575</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.02766199608662401</v>
+        <v>0.7431662964929988</v>
       </c>
       <c r="E4" t="n">
-        <v>0.55719009676852</v>
+        <v>0.6702282181968899</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1569604128599167</v>
+        <v>0.1868820041418076</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5381874442100525</v>
+        <v>0.4670322835445404</v>
       </c>
       <c r="H4" t="n">
-        <v>0.451206237077713</v>
+        <v>0.1742086708545685</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4972543716430664</v>
+        <v>0.3292329609394073</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_14</t>
+          <t>model_11_8_7</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8582648086699606</v>
+        <v>0.834240579395943</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6770864883476564</v>
+        <v>0.2169567551925661</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.01978522157054874</v>
+        <v>0.7830169894935455</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5547898592331908</v>
+        <v>0.5604424890448865</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1568590849637985</v>
+        <v>0.183446854352951</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5463441610336304</v>
+        <v>0.6980937123298645</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4477478563785553</v>
+        <v>0.1471782028675079</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4999496936798096</v>
+        <v>0.438839316368103</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_11</t>
+          <t>model_11_8_6</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8599548409746409</v>
+        <v>0.8355518513734161</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6866218474873268</v>
+        <v>0.237747955477288</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.01140873138634646</v>
+        <v>0.8118424512304178</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5639409597760625</v>
+        <v>0.5794875252526752</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1549887359142303</v>
+        <v>0.1819956451654434</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5302110314369202</v>
+        <v>0.6795580983161926</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4440700709819794</v>
+        <v>0.1276260763406754</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4896734356880188</v>
+        <v>0.4198254346847534</v>
       </c>
     </row>
     <row r="7">
@@ -637,307 +637,617 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8616953180519992</v>
+        <v>0.8371350189026706</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6911793489979443</v>
+        <v>0.2203518556329263</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01687505929563049</v>
+        <v>0.754621198772174</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5727812587427996</v>
+        <v>0.5529687930252509</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1530625373125076</v>
+        <v>0.1802435666322708</v>
       </c>
       <c r="G7" t="n">
-        <v>0.522500216960907</v>
+        <v>0.6950669288635254</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4316517412662506</v>
+        <v>0.1664389073848724</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4797462522983551</v>
+        <v>0.4463008046150208</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_10</t>
+          <t>model_11_8_8</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8617937992029568</v>
+        <v>0.8397675264115237</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6907801969355206</v>
+        <v>0.2100078440243506</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01887843753984664</v>
+        <v>0.8052377241713548</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5728262025780718</v>
+        <v>0.564261780993</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1529535353183746</v>
+        <v>0.1773301213979721</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5231754779815674</v>
+        <v>0.7042887806892395</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4307721555233002</v>
+        <v>0.1321060210466385</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4796957671642303</v>
+        <v>0.4350262880325317</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_8</t>
+          <t>model_11_8_4</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8653167436764583</v>
+        <v>0.842115557859374</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6997307181793002</v>
+        <v>0.45141739253251</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05041520347105133</v>
+        <v>0.7608490436593305</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5857724356414626</v>
+        <v>0.6641962026494825</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1490546762943268</v>
+        <v>0.1747315675020218</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5080319046974182</v>
+        <v>0.489068865776062</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4169256091117859</v>
+        <v>0.1622145920991898</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4651577472686768</v>
+        <v>0.3352551162242889</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_7</t>
+          <t>model_11_8_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8705293246258339</v>
+        <v>0.8442533732320419</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7020062872029397</v>
+        <v>0.1600017898959962</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1478341605510886</v>
+        <v>0.7693375194514502</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6055158570161904</v>
+        <v>0.5291433579789111</v>
       </c>
       <c r="F10" t="n">
-        <v>0.143285870552063</v>
+        <v>0.1723656356334686</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5041818022727966</v>
+        <v>0.748869776725769</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3741527497768402</v>
+        <v>0.1564569026231766</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4429868757724762</v>
+        <v>0.4700873196125031</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_6</t>
+          <t>model_11_8_20</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8768361072033597</v>
+        <v>0.8450166112351192</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7106577012969723</v>
+        <v>0.1564648335267668</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2306741324882521</v>
+        <v>0.7605056043541292</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6276543031416458</v>
+        <v>0.5246475191749105</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1363061368465424</v>
+        <v>0.1715209484100342</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4895443320274353</v>
+        <v>0.7520231604576111</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3377809524536133</v>
+        <v>0.1624475419521332</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4181264042854309</v>
+        <v>0.4745758175849915</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_5</t>
+          <t>model_11_8_21</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8816239870022624</v>
+        <v>0.8455887718395864</v>
       </c>
       <c r="C12" t="n">
-        <v>0.715355029660365</v>
+        <v>0.160467067762422</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2993944373477514</v>
+        <v>0.7599957316748495</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6440451990105795</v>
+        <v>0.5263766947496542</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1310073584318161</v>
+        <v>0.1708877384662628</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4815967977046967</v>
+        <v>0.7484551668167114</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3076085448265076</v>
+        <v>0.1627933830022812</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3997202217578888</v>
+        <v>0.4728494584560394</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_4</t>
+          <t>model_11_8_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8857098306810482</v>
+        <v>0.8457439152511388</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7196687413591889</v>
+        <v>0.1759327225451844</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3578576919998433</v>
+        <v>0.7372879909976795</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6582422517130164</v>
+        <v>0.5264278593457408</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1264855414628983</v>
+        <v>0.1707160323858261</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4742983281612396</v>
+        <v>0.7346672415733337</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2819395959377289</v>
+        <v>0.1781958937644958</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3837776482105255</v>
+        <v>0.4727984070777893</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_3</t>
+          <t>model_11_8_17</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8865401477827021</v>
+        <v>0.8461596150826338</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7246982357963995</v>
+        <v>0.1631492743891265</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3515612596006833</v>
+        <v>0.7730453408521514</v>
       </c>
       <c r="E14" t="n">
-        <v>0.661097171699802</v>
+        <v>0.5318168001700766</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1255666315555573</v>
+        <v>0.1702559739351273</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4657888412475586</v>
+        <v>0.7460638880729675</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2847041189670563</v>
+        <v>0.1539419144392014</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3805716931819916</v>
+        <v>0.4674183130264282</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_1</t>
+          <t>model_11_8_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8958991192303046</v>
+        <v>0.8464883545132103</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7192013801562402</v>
+        <v>0.1580157920198006</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5525927304434569</v>
+        <v>0.8391915319035141</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6937001078600255</v>
+        <v>0.5505382312454239</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1152089834213257</v>
+        <v>0.1698921471834183</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4750890135765076</v>
+        <v>0.7506403923034668</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1964390575885773</v>
+        <v>0.1090753749012947</v>
       </c>
       <c r="I15" t="n">
-        <v>0.343960165977478</v>
+        <v>0.4487273991107941</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
+          <t>model_11_8_19</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.846518401184198</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1855233636198523</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7362762534235405</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5306383071249554</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.1698589026927948</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.7261170744895935</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.1788821518421173</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.4685948193073273</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>model_11_8_16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8465472481785793</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.171162958111047</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7754958724519715</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5363887584567777</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.1698269844055176</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.7389194965362549</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.1522797346115112</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.4628537893295288</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
           <t>model_11_8_2</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>0.9066195398248771</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.785101597530148</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.4524639858875552</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.7278432086030624</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.103344663977623</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.3635910749435425</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.2404016703367233</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.3056190609931946</v>
+      <c r="B18" t="n">
+        <v>0.8477823776783717</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6184859335983024</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7314836707722451</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.7337893167637239</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.1684600561857224</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.3401249647140503</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.1821329295635223</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.265775740146637</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>model_11_8_18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8481470644353901</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1820664890068254</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.7643885981481919</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.537992280079984</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1680564433336258</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.7291988730430603</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.1598137319087982</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.4612528681755066</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>model_11_8_5</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8491176555221598</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4516460556811732</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.7657221725007248</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.6658623687218954</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.1669823080301285</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.4888650178909302</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.1589091718196869</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.3335916996002197</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>model_11_8_24</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8495027901224026</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1997265491147611</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.7435663734660131</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.5396836955837694</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.1665560752153397</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.7134547829627991</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.1739373058080673</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.459564208984375</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>model_11_8_14</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8496696871366113</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1831477082062988</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8181125086850477</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5556798613725602</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.1663713455200195</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.7282350063323975</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.1233731359243393</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.443594217300415</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>model_11_8_22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8499280142711018</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1725660198205951</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.790303739387698</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.5417864486566812</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.1660854667425156</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.7376687526702881</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.1422356516122818</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.4574649035930634</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>model_11_8_10</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8517972421453807</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.244927099460727</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8124627921389396</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.5830798130105601</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.1640167683362961</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.673157811164856</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.1272053122520447</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.4162389934062958</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_11_8_11</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8520818658306739</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.2436541755266722</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8161011925138925</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.5836413405070158</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.1637018024921417</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.6742926239967346</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.1247373968362808</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.4156784117221832</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>model_11_8_12</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8542397263048571</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.2305043609328755</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8365634217388151</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.5839669253574467</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.1613136678934097</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.6860158443450928</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.1108580008149147</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.4153533577919006</v>
       </c>
     </row>
   </sheetData>
